--- a/VAT/VatReport/documents/IVA_NL/prove calcoli .xlsx
+++ b/VAT/VatReport/documents/IVA_NL/prove calcoli .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P\Netherlands\VAT\btwReport\documents\IVA_NL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P\Netherlands\VAT\VatReport\documents\IVA_NL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734D09B-3348-4391-93AE-E8BEF51350C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B002511-9649-4C88-811C-31516F996FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="780" windowWidth="28740" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="240" windowWidth="28740" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,70 +34,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1a</t>
   </si>
   <si>
-    <t>5b</t>
-  </si>
-  <si>
-    <t>Differenza</t>
-  </si>
-  <si>
     <t>Acc</t>
   </si>
   <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Diff arr.</t>
-  </si>
-  <si>
     <t>V21</t>
   </si>
   <si>
     <t>V9</t>
   </si>
   <si>
-    <t>totale importo V21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importi Singoli </t>
-  </si>
-  <si>
-    <t>Usato</t>
-  </si>
-  <si>
-    <t>diventa</t>
-  </si>
-  <si>
-    <t>Originale</t>
-  </si>
-  <si>
-    <t>VAT data Calc.</t>
-  </si>
-  <si>
-    <t>VAT due Calc</t>
-  </si>
-  <si>
-    <t>tot</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>(perdo valori, in questo caso 1 fr)</t>
-  </si>
-  <si>
-    <t>non dec</t>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>VOT</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>PG21</t>
+  </si>
+  <si>
+    <t>PG9</t>
+  </si>
+  <si>
+    <t>PG27</t>
+  </si>
+  <si>
+    <t>PG15</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>vat Amount</t>
+  </si>
+  <si>
+    <t>(1 semestre)</t>
+  </si>
+  <si>
+    <t>Trunc gr</t>
+  </si>
+  <si>
+    <t>Trunc code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,25 +114,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -171,35 +170,56 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,337 +501,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T28"/>
+  <dimension ref="B2:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E3" s="6"/>
-      <c r="F3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="17">
-        <v>4338.84</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <f>SUM(G3:G4)</f>
-        <v>4360.53</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="13">
-        <v>4360</v>
-      </c>
-      <c r="M3" s="9">
-        <v>4338</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <f>SUM(M3:M4)</f>
-        <v>4359</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="20"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E4" s="6"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="4">
-        <v>21.69</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="M4">
-        <v>21</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="11"/>
-      <c r="Q4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18">
-        <v>82.57</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="M5" s="7">
-        <v>82</v>
-      </c>
-      <c r="N5" s="12"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="20"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G6" s="8">
-        <f>SUM(G3:G5)</f>
-        <v>4443.0999999999995</v>
-      </c>
-      <c r="M6" s="1">
-        <f>SUM(M3:M5)</f>
-        <v>4441</v>
-      </c>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24">
+        <f>21.69+4338.84</f>
+        <v>4360.53</v>
+      </c>
+      <c r="G6" s="24">
+        <v>4360</v>
+      </c>
+      <c r="H6" s="24">
+        <f>21+4338</f>
+        <v>4359</v>
+      </c>
+      <c r="M6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G8" s="18">
-        <v>466.34</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
+        <v>82.57</v>
+      </c>
+      <c r="G7" s="25">
+        <v>82</v>
+      </c>
+      <c r="H7" s="24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="M8" s="7"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G9" s="18">
-        <v>40.79</v>
-      </c>
-      <c r="H9" s="12"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="M9" s="7"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G10" s="18">
-        <v>34.71</v>
-      </c>
-      <c r="H10" s="12"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="11"/>
+      <c r="E10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="M10" s="7"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G11" s="18">
-        <v>627.52</v>
-      </c>
-      <c r="H11" s="12"/>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
       <c r="M11" s="7"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G12" s="18">
-        <v>5.64</v>
-      </c>
-      <c r="H12" s="12"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+      <c r="E12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="M12" s="7"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="G13" s="4">
-        <f>SUM(G8:G12)</f>
-        <v>1175.0000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="24">
+        <f>SUM(F6:F12)</f>
+        <v>4443.0999999999995</v>
+      </c>
+      <c r="G13" s="25">
+        <f>SUM(G6:G7)</f>
+        <v>4442</v>
+      </c>
+      <c r="H13" s="24">
+        <f>SUM(H6:H12)</f>
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8">
-        <f>G6-G13</f>
-        <v>3268.0999999999995</v>
-      </c>
-      <c r="M16" s="1">
-        <f>M6-G13</f>
-        <v>3266</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="15">
-        <f>G16-M16</f>
-        <v>2.0999999999994543</v>
-      </c>
-      <c r="I18" s="16"/>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4338.84</v>
-      </c>
-      <c r="F23" s="19">
-        <f>SUM(E23:E24)</f>
-        <v>4360.53</v>
-      </c>
-      <c r="G23" s="12">
-        <v>4360</v>
-      </c>
-      <c r="H23" s="19">
-        <f>SUM(E23:E24)</f>
-        <v>4360.53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="12"/>
-      <c r="E24">
-        <v>21.69</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>82.75</v>
-      </c>
-      <c r="F25" s="5">
-        <v>82.75</v>
-      </c>
-      <c r="G25" s="5">
-        <v>82</v>
-      </c>
-      <c r="H25" s="5">
-        <f>SUM(E25)</f>
-        <v>82.75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1">
-        <f>SUM(E23:E25)</f>
-        <v>4443.28</v>
-      </c>
-      <c r="F26" s="1">
-        <f>SUM(F23:F25)</f>
-        <v>4443.28</v>
-      </c>
-      <c r="G26" s="5">
-        <f>SUM(G23:G25)</f>
-        <v>4442</v>
-      </c>
-      <c r="H26" s="1">
-        <f>SUM(H23:H25)</f>
-        <v>4443.28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H27">
-        <v>4443</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>1175</v>
-      </c>
-      <c r="E28" s="1">
-        <f>E26-C28</f>
-        <v>3268.2799999999997</v>
-      </c>
-      <c r="F28" s="1">
-        <f>F26-C28</f>
-        <v>3268.2799999999997</v>
-      </c>
-      <c r="G28">
-        <f>SUM(G26-C28)</f>
-        <v>3267</v>
-      </c>
-      <c r="H28">
-        <f>SUM(H27-C28)</f>
-        <v>3268</v>
-      </c>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="6">
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
